--- a/Financials/MCO.xlsx
+++ b/Financials/MCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7444054F-E476-F442-86A6-087680E55C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C1AF4C-38CC-EC44-8762-241C7A698778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Market Cap</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Shares</t>
+  </si>
+  <si>
+    <t>Needs updating</t>
   </si>
 </sst>
 </file>
@@ -786,12 +789,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>495.1</v>
-    <v>329.72</v>
-    <v>1.2906</v>
-    <v>3.79</v>
-    <v>8.2679999999999993E-3</v>
-    <v>-22.175000000000001</v>
-    <v>-4.7976999999999999E-2</v>
+    <v>332.05</v>
+    <v>1.2851999999999999</v>
+    <v>4.4800000000000004</v>
+    <v>9.7149999999999997E-3</v>
+    <v>1.59</v>
+    <v>3.4150000000000001E-3</v>
     <v>USD</v>
     <v>Moody's Corporation is a global risk assessment company. Its data, analytical solutions and insights help decision-makers identify opportunities and manage the risks of doing business with others. Its segments include Moody's Investors Service (MIS) and Moody's Analytics (MA). The MIS segment publishes credit ratings and provides assessment services on a wide range of debt obligations, programs and facilities, and the entities that issue such obligations in markets worldwide, including various corporate, financial institution and governmental obligations, and structured finance securities. The MA segment is a global provider of data and information, research and insights, and decision solutions, which help companies make decisions. The MA segment leverages its industry expertise across multiple risks, such as credit, market, financial crime, supply chain, catastrophe and climate to deliver integrated risk assessment solutions. It also has investment in Africa’s domestic credit markets.</v>
     <v>15776</v>
@@ -799,25 +802,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>7 World Trade Center, At 250 Greenwich Street, NEW YORK, NY, 10007 US</v>
-    <v>462.2</v>
+    <v>466.59</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45602.040632245313</v>
+    <v>45603.961659617969</v>
     <v>0</v>
-    <v>458.40499999999997</v>
-    <v>83750640000</v>
+    <v>460.74</v>
+    <v>84370344000</v>
     <v>MOODY'S CORPORATION</v>
     <v>MOODY'S CORPORATION</v>
-    <v>458.69</v>
-    <v>41.938099999999999</v>
-    <v>458.41</v>
-    <v>462.2</v>
-    <v>440.02499999999998</v>
+    <v>464.17</v>
+    <v>42.243699999999997</v>
+    <v>461.14</v>
+    <v>465.62</v>
+    <v>467.16</v>
     <v>181200000</v>
     <v>MCO</v>
     <v>MOODY'S CORPORATION (XNYS:MCO)</v>
-    <v>454828</v>
-    <v>750534</v>
+    <v>741114</v>
+    <v>747941</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -982,9 +985,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -1425,7 +1428,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1458,14 +1461,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="45" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>462.2</v>
+        <v>465.62</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="49">
         <f ca="1">A5/F10</f>
-        <v>12.462892857142856</v>
+        <v>12.555110714285714</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -1491,7 +1494,9 @@
       <c r="J3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="L3" s="14"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1503,21 +1508,21 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="46" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>8.2679999999999993E-3</v>
+        <v>9.7149999999999997E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="49">
         <f ca="1">A5/F15</f>
-        <v>40.576860465116276</v>
+        <v>40.877104651162789</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="52">
-        <f>E17</f>
-        <v>0.27163624070317782</v>
+        <f>F17</f>
+        <v>0.30714285714285716</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>6</v>
@@ -1551,21 +1556,21 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>83750640000</v>
+        <v>84370344000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="50">
         <f ca="1">F18/A5</f>
-        <v>2.7283373595712222E-2</v>
+        <v>2.7082975980280463E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="52">
-        <f>E20</f>
-        <v>0.35463150777552399</v>
+        <f>F20</f>
+        <v>0.34002976190476192</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>8</v>
@@ -1600,7 +1605,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.2906</v>
+        <v>1.2851999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -1633,7 +1638,7 @@
       </c>
       <c r="K6" s="56">
         <f ca="1">K5/A3-1</f>
-        <v>-0.62172870215646414</v>
+        <v>-0.6245071219808378</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>13</v>
